--- a/data/raw_data/travels.xlsx
+++ b/data/raw_data/travels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petiakovacs/Documents/travel_expenses/data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1610A792-0AD5-3A4F-A017-4888E0EA3E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B14A6F7-DA2E-434C-AB9B-BFEC0A14B8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="303">
   <si>
     <t>Order</t>
   </si>
@@ -79,9 +79,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>Kem√©ny √°gy.</t>
-  </si>
-  <si>
     <t>2022.04.27.</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>HOPELAND</t>
   </si>
   <si>
-    <t>Elment kezd√©snek az a t√≠z nap, de nem voltam teljesen elragadtatva. A programmal</t>
-  </si>
-  <si>
     <t>2022.05.06.</t>
   </si>
   <si>
@@ -106,27 +100,18 @@
     <t>M</t>
   </si>
   <si>
-    <t>Rendes, kefves, bar√°ts√°gos, egy√ºtt l√≥gtunk, aut√≥val j√°rtunk</t>
-  </si>
-  <si>
     <t>2022.05.11.</t>
   </si>
   <si>
     <t>Theo Iliopoulos</t>
   </si>
   <si>
-    <t>Iszogattunk egy√ºtt, biciklit ideadta, kulcsot r√°mhagyta</t>
-  </si>
-  <si>
     <t>2022.05.13.</t>
   </si>
   <si>
     <t>Daniel Nazari</t>
   </si>
   <si>
-    <t>Rendes fick√≥k nagyon, j√≥l √©reztem magam vel√ºk, b√°r a hely nem volt k√∂zel a v√°roshoz</t>
-  </si>
-  <si>
     <t>2022.05.24.</t>
   </si>
   <si>
@@ -136,9 +121,6 @@
     <t>Konstantinos Malliotakis</t>
   </si>
   <si>
-    <t xml:space="preserve">Az els≈ë perct≈ël j√≥l √©reztem magam, k√ºl√∂n szoba, k√ºl√∂n szolg√°ltat√°sok, rep√ºl√©s, bicikli, robog√≥, kir√°ndul√°sok. </t>
-  </si>
-  <si>
     <t>2022.05.27.</t>
   </si>
   <si>
@@ -148,42 +130,27 @@
     <t>Hostel</t>
   </si>
   <si>
-    <t>A hostel az√©rt volt, mert nem j√∂tt √∂ssze semmi. Butus voltam, √©s kifizettem a k√©t √©jszak√°t, de nem volt t√∫l j√≥, hangosan horkoltak, k√∂h√∂gtek.</t>
-  </si>
-  <si>
     <t>2022.05.28.</t>
   </si>
   <si>
     <t>Nina Papadoulaki</t>
   </si>
   <si>
-    <t>Els≈ë nap csak Nina lak√≥t√°rs√°val l√≥gtam, ami j√≥ volt, m√°sodik nap viszont motoroztunk, tengerpartra ment√ºnk, kaj√°t vett, s√©t√°ltunk.</t>
-  </si>
-  <si>
     <t>2022.05.29.</t>
   </si>
   <si>
-    <t>M√°sodszorra is felvettem, mert k√∂zben voltak m√°s hostjaim is, de a l√©nyegen nem v√°ltoztat ez</t>
-  </si>
-  <si>
     <t>2022.06.11.</t>
   </si>
   <si>
     <t>Giannis Mygiakis</t>
   </si>
   <si>
-    <t>Rendes fick√≥, de a r√©szeg vezet√©se leh√∫zta a pontot. Az viszont t√≥ volt, ahogy aut√≥csuk√°ztunk, fot√≥ztunk</t>
-  </si>
-  <si>
     <t>2022.06.12.</t>
   </si>
   <si>
     <t>Fotis Tzoumas</t>
   </si>
   <si>
-    <t>Elveszett egy ember, de m√©gis j√≥ volt vele l√≥gni. A lak√°sa t√∂k√©letes helyen van, viszont nagyon kicsi.</t>
-  </si>
-  <si>
     <t>2022.06.14.</t>
   </si>
   <si>
@@ -196,27 +163,15 @@
     <t>Selma Sel</t>
   </si>
   <si>
-    <t>Aranyos, kedves n≈ë. Csin√°lt kaj√°t, bulit tartott.</t>
-  </si>
-  <si>
     <t>2022.06.16.</t>
   </si>
   <si>
-    <t>√ñmer F. Bolat</t>
-  </si>
-  <si>
-    <t>Nagyon messze lakott, de √©rdekes volt abban a lak√≥komplexumban. L√≥gtunk is egy√ºtt, f≈ëz√∂tt is, nem volt rossz.</t>
-  </si>
-  <si>
     <t>2022.06.18.</t>
   </si>
   <si>
     <t>Yakup</t>
   </si>
   <si>
-    <t>J√≥l elvoltam, biciklit kaptam, kaj√°ltunk, m√∫zeumba ment√ºnk, k√ºl√∂n szob√°m volt, tengerpart k√∂zel</t>
-  </si>
-  <si>
     <t>2022.06.26.</t>
   </si>
   <si>
@@ -226,27 +181,18 @@
     <t>Filiz B</t>
   </si>
   <si>
-    <t>Iszogattunk egy√ºtt, kaj√°ltunk de nem volt sok id≈ënk</t>
-  </si>
-  <si>
     <t>2022.06.27.</t>
   </si>
   <si>
     <t>Erdal TA≈ûKESEN</t>
   </si>
   <si>
-    <t>Aki nagyon szigor√∫nak indult, azt√°n kider√ºlt, hogy a legkezesebb b√°r√°nyka. Kedves, seg√≠t≈ëk√©sz, rugalmas.</t>
-  </si>
-  <si>
     <t>2022.07.01.</t>
   </si>
   <si>
     <t>Merve</t>
   </si>
   <si>
-    <t>Merve, aki kicsit fura, de m√©gis seg√≠t≈ëk√©sz, rendes, rugalmas, befogadott, el≈ësz√∂r egy CS esem√©nyen tal√°lkoztunk.</t>
-  </si>
-  <si>
     <t>2022.07.02.</t>
   </si>
   <si>
@@ -256,21 +202,9 @@
     <t>Mustafa</t>
   </si>
   <si>
-    <t>A visszavonult b≈±n√∂z≈ë, aki hivatalosan is elmebajos, de j√≥l b√°nik a vend√©geivel, csak sokat besz√©l, √©s z√°rt a gondolkod√°sa</t>
-  </si>
-  <si>
     <t>2022.07.04.</t>
   </si>
   <si>
-    <t>G√ºll√ºk</t>
-  </si>
-  <si>
-    <t>Karin B√ºttermann-Divens</t>
-  </si>
-  <si>
-    <t>Aki seg√≠t≈ëk√©sz, mindenkinek pr√≥b√°l seg√≠teni, f≈ëleg az √°llatokon. J√≥kat lehetett vele besz√©lgetni mindenr≈ël.</t>
-  </si>
-  <si>
     <t>2022.07.07.</t>
   </si>
   <si>
@@ -280,21 +214,12 @@
     <t>Yildiz Ertemli</t>
   </si>
   <si>
-    <t>Akivel tal√°lkozni is √©pphogy csak lehetett, besz√©lgetni v√©gk√©pp, igaz√°b√≥l az egyik legrosszabb hostom</t>
-  </si>
-  <si>
     <t>2022.07.08.</t>
   </si>
   <si>
-    <t>Dat√ßa</t>
-  </si>
-  <si>
     <t>Remzi Akalan</t>
   </si>
   <si>
-    <t>A t√∂r√∂k kis szerelmem oka. Akinek az √°gy√°ban aludtam k√©t √©jszaka is, √©s ahol azt √©reztem, hogy a csajok meg≈ër√ºlnek √©rtem. B√°rmikor visszamenn√©k.</t>
-  </si>
-  <si>
     <t>2022.07.10.</t>
   </si>
   <si>
@@ -304,9 +229,6 @@
     <t>ali √ßevik</t>
   </si>
   <si>
-    <t>A legkir√°lybab h√°z, amiben valaha voltam. Ehhez t√°rsult egy teljesen kellemes szem√©lyis√©g, akivel √∫gy √©reztem, hogy a csend √©s a besz√©lget√©s is ugyan olyan tartalmas lehet.</t>
-  </si>
-  <si>
     <t>2022.07.12.</t>
   </si>
   <si>
@@ -316,21 +238,12 @@
     <t>Fatih Guzel</t>
   </si>
   <si>
-    <t>Kapit√°ny √∫r, aki hab√°r befogadott, de nem igaz√°n volt seg√≠t≈ëk√©sz semmiben. El√©gg√© bek√©pzelt arc, de a lak√°s az t√∂k√©letes volt.</t>
-  </si>
-  <si>
     <t>2022.07.13.</t>
   </si>
   <si>
-    <t>ƒ∞slamlar</t>
-  </si>
-  <si>
     <t>Soheil Kalateh</t>
   </si>
   <si>
-    <t>Akivel a legjobbat besz√©lgettem, √©s tanultam t≈ële sokmindent az √©letr≈ël, az elm√∫l√°sr√≥l √©s elfogad√°sr√≥l.</t>
-  </si>
-  <si>
     <t>2022.07.15.</t>
   </si>
   <si>
@@ -340,9 +253,6 @@
     <t>Yulia Zaits</t>
   </si>
   <si>
-    <t>Nemsok minden t√∂rt√©nt itt, nem volt kiemelked≈ë semmi, gyalogos t√°vols√°gra volt a tengerpart, k√ºl√∂n szob√°m volt, de nagyj√°b√≥l ennyi</t>
-  </si>
-  <si>
     <t>2022.07.17.</t>
   </si>
   <si>
@@ -352,9 +262,6 @@
     <t>Jnr Eva</t>
   </si>
   <si>
-    <t>≈êr√ºlt egy n≈ëszem√©ly, sokmindent el√°rul az, hogy elvittem magammal a √≥z √∫tlevelet, amikor lel√©ptem a v√°rosba. Els≈ë nap nagyon j√≥ volt, de egyre csak veszette a var√°zst</t>
-  </si>
-  <si>
     <t>2022.07.19.</t>
   </si>
   <si>
@@ -367,21 +274,12 @@
     <t>Hungary</t>
   </si>
   <si>
-    <t>√ârd</t>
-  </si>
-  <si>
     <t>Sotak Tomi</t>
   </si>
   <si>
     <t>2022.07.22.</t>
   </si>
   <si>
-    <t>Ny√≠regyh√°za-S√≥st√≥</t>
-  </si>
-  <si>
-    <t>Feri esk√ºv≈ë</t>
-  </si>
-  <si>
     <t>2022.07.23.</t>
   </si>
   <si>
@@ -406,9 +304,6 @@
     <t>Debrecen</t>
   </si>
   <si>
-    <t>Betti Babj√°k</t>
-  </si>
-  <si>
     <t>2022.07.29.</t>
   </si>
   <si>
@@ -436,9 +331,6 @@
     <t>Prague</t>
   </si>
   <si>
-    <t>Patrik Dom√≠n</t>
-  </si>
-  <si>
     <t>2022.08.07.</t>
   </si>
   <si>
@@ -448,9 +340,6 @@
     <t>2022.08.10.</t>
   </si>
   <si>
-    <t>Marek ≈†≈•astn√Ω</t>
-  </si>
-  <si>
     <t>2022.08.13.</t>
   </si>
   <si>
@@ -460,9 +349,6 @@
     <t>Dresden</t>
   </si>
   <si>
-    <t>Florian L√∂tzsch</t>
-  </si>
-  <si>
     <t>2022.08.14.</t>
   </si>
   <si>
@@ -622,9 +508,6 @@
     <t>Damien</t>
   </si>
   <si>
-    <t>Damien, aki nagy nehezen de fogadott. Amikor oda√©rtem, akkor m√°r nagyon kedves, t√∂r≈ëf≈ë volt, sokat dobott az eg√©szen</t>
-  </si>
-  <si>
     <t>2022.09.29.</t>
   </si>
   <si>
@@ -637,18 +520,12 @@
     <t>Jorge</t>
   </si>
   <si>
-    <t>A hostom, akivel ugyancsak nem sokat tal√°lkoztam, minden alkalommal m√°st mondott, √≠g√©rgetett mindenf√©l√©t, de azt√°n semmi sem √∫gy volt ahogy eltervezte. Nem cs√≠ptem a szem√©lyis√©g√©t.</t>
-  </si>
-  <si>
     <t>2022.10.09.</t>
   </si>
   <si>
     <t>Anna</t>
   </si>
   <si>
-    <t>Ennyier borzaszt√≥ n≈ët m√©g nem l√°ttam, egy cs≈ëdt√∂meg volt, beteg is, m√°snapos is, minden baja volt neki. Vele sem volt annyira j√≥ √©lm√©nyem</t>
-  </si>
-  <si>
     <t>2022.10.11.</t>
   </si>
   <si>
@@ -658,18 +535,12 @@
     <t>Mark</t>
   </si>
   <si>
-    <t>A furcsa meleg nudista fick√≥, akivel furcsa m√≥don az els≈ë perct≈ël kezdve k√©nyelmesen √©reztem magam, majd meglep≈ëen j√≥kat besz√©lgett√ºnk mindenr≈ël is.</t>
-  </si>
-  <si>
     <t>2022.10.15.</t>
   </si>
   <si>
     <t>Faz</t>
   </si>
   <si>
-    <t>Kedves, al√°zatos, seg√≠t≈ëk√©sz emberke, sajn√°lom, hogy nem l√≥gtunk t√∂bbet egy√ºtt, de ≈ë az az emberke, akivel sz√≠vesen tal√°lkozn√©k m√©g b√°rmikor.</t>
-  </si>
-  <si>
     <t>2022.10.19.</t>
   </si>
   <si>
@@ -733,18 +604,12 @@
     <t>36.8895806,-3.4349444</t>
   </si>
   <si>
-    <t>orchiva</t>
-  </si>
-  <si>
     <t>2022.11.26.</t>
   </si>
   <si>
     <t>36.917244, -3.435767</t>
   </si>
   <si>
-    <t>beneficio</t>
-  </si>
-  <si>
     <t>2022.11.28.</t>
   </si>
   <si>
@@ -790,9 +655,6 @@
     <t>Portimao</t>
   </si>
   <si>
-    <t>Esos camp</t>
-  </si>
-  <si>
     <t>Montenegro</t>
   </si>
   <si>
@@ -806,6 +668,267 @@
   </si>
   <si>
     <t>Mauro</t>
+  </si>
+  <si>
+    <t>Kemeny agy</t>
+  </si>
+  <si>
+    <t>Erasmus + Training course</t>
+  </si>
+  <si>
+    <t>Super kind</t>
+  </si>
+  <si>
+    <t>We had lot's of food and vine</t>
+  </si>
+  <si>
+    <t>Crazy doctor</t>
+  </si>
+  <si>
+    <t>The pilot</t>
+  </si>
+  <si>
+    <t>Nina and her flatmate were cool</t>
+  </si>
+  <si>
+    <t>The Pilot</t>
+  </si>
+  <si>
+    <t>Young photographer</t>
+  </si>
+  <si>
+    <t>Another doctor</t>
+  </si>
+  <si>
+    <t>Kind teacher who loves to travel</t>
+  </si>
+  <si>
+    <t>Omer F. Bolat</t>
+  </si>
+  <si>
+    <t>Engineer guy living in a skyscraper</t>
+  </si>
+  <si>
+    <t>Half serbian film director</t>
+  </si>
+  <si>
+    <t>Kind student girl with cute cats</t>
+  </si>
+  <si>
+    <t>Humble and helpful guy</t>
+  </si>
+  <si>
+    <t>Cat lady</t>
+  </si>
+  <si>
+    <t>Retired criminal</t>
+  </si>
+  <si>
+    <t>Gulluk</t>
+  </si>
+  <si>
+    <t>Karin Buttermann-Divens</t>
+  </si>
+  <si>
+    <t>Old German Cat lady</t>
+  </si>
+  <si>
+    <t>We barely met</t>
+  </si>
+  <si>
+    <t>Datca</t>
+  </si>
+  <si>
+    <t>The dancer party guy</t>
+  </si>
+  <si>
+    <t>Cool designer guy</t>
+  </si>
+  <si>
+    <t>Captain</t>
+  </si>
+  <si>
+    <t>Islamlar</t>
+  </si>
+  <si>
+    <t>The wanderer</t>
+  </si>
+  <si>
+    <t>The travel agency owner</t>
+  </si>
+  <si>
+    <t>The crazy Kirgiz girl</t>
+  </si>
+  <si>
+    <t>night at the airport</t>
+  </si>
+  <si>
+    <t>Friends</t>
+  </si>
+  <si>
+    <t>Erd</t>
+  </si>
+  <si>
+    <t>Nyiregyhaza</t>
+  </si>
+  <si>
+    <t>Feri eskuvo</t>
+  </si>
+  <si>
+    <t>Friends wedding</t>
+  </si>
+  <si>
+    <t>Visiting my sister</t>
+  </si>
+  <si>
+    <t>Preparing</t>
+  </si>
+  <si>
+    <t>Visiting my friend</t>
+  </si>
+  <si>
+    <t>Betti Babjak</t>
+  </si>
+  <si>
+    <t>Parents</t>
+  </si>
+  <si>
+    <t>My sister</t>
+  </si>
+  <si>
+    <t>Weeeirdo guy</t>
+  </si>
+  <si>
+    <t>2022.08.04.</t>
+  </si>
+  <si>
+    <t>Milovice</t>
+  </si>
+  <si>
+    <t>Festival</t>
+  </si>
+  <si>
+    <t>Drum and Bass festival - Let it Roll</t>
+  </si>
+  <si>
+    <t>I hosted her from Mexico in Budapest</t>
+  </si>
+  <si>
+    <t>Marek</t>
+  </si>
+  <si>
+    <t>Patrik</t>
+  </si>
+  <si>
+    <t>The super interesting traveler</t>
+  </si>
+  <si>
+    <t>Florian Lotzsch</t>
+  </si>
+  <si>
+    <t>The teacher</t>
+  </si>
+  <si>
+    <t>The indian engineer</t>
+  </si>
+  <si>
+    <t>The crazy pothead</t>
+  </si>
+  <si>
+    <t>We hanged out in Antalya</t>
+  </si>
+  <si>
+    <t>We met in Prague, kind, guitar player prof</t>
+  </si>
+  <si>
+    <t>I hostes him in Budapest</t>
+  </si>
+  <si>
+    <t>A family hosting a lot of strangers</t>
+  </si>
+  <si>
+    <t>The indian student</t>
+  </si>
+  <si>
+    <t>Cool traveler guy, photographer</t>
+  </si>
+  <si>
+    <t>Friend from slovakia</t>
+  </si>
+  <si>
+    <t>Daytrip with Lola</t>
+  </si>
+  <si>
+    <t>I hosted this Turkish girl In Budapest</t>
+  </si>
+  <si>
+    <t>The famous couchsurfing host who lives for CS</t>
+  </si>
+  <si>
+    <t>Retired IT guy</t>
+  </si>
+  <si>
+    <t>I met him in Athens, techno guy</t>
+  </si>
+  <si>
+    <t>I met her in the festival</t>
+  </si>
+  <si>
+    <t>I hosted him from Columbia in Budapest</t>
+  </si>
+  <si>
+    <t>Creepy guy</t>
+  </si>
+  <si>
+    <t>Busy guy with hungarian interests</t>
+  </si>
+  <si>
+    <t>Biker photographer crypto guy</t>
+  </si>
+  <si>
+    <t>Kind old hippie woman</t>
+  </si>
+  <si>
+    <t>Friendly tourguide</t>
+  </si>
+  <si>
+    <t>Interesting guy from the Emirates</t>
+  </si>
+  <si>
+    <t>Workaway volunteering</t>
+  </si>
+  <si>
+    <t>Estonian Scrum Master</t>
+  </si>
+  <si>
+    <t>Problematic woman, covid</t>
+  </si>
+  <si>
+    <t>Violeta</t>
+  </si>
+  <si>
+    <t>orchiva hippie camp</t>
+  </si>
+  <si>
+    <t>beneficio hippie camp</t>
+  </si>
+  <si>
+    <t>I met her on the training course in hopeland</t>
+  </si>
+  <si>
+    <t>daytrip to the new country</t>
+  </si>
+  <si>
+    <t>wildcampign by the sea</t>
+  </si>
+  <si>
+    <t>Monkey guy</t>
+  </si>
+  <si>
+    <t>Rainy wildcamp</t>
+  </si>
+  <si>
+    <t>Drummer</t>
   </si>
 </sst>
 </file>
@@ -1298,11 +1421,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1658,10 +1780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N79"/>
+  <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="157" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="B59" zoomScale="157" workbookViewId="0">
+      <selection activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1745,7 +1867,7 @@
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>19</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1753,19 +1875,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>9</v>
       </c>
       <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1780,7 +1902,7 @@
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>23</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -1788,28 +1910,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
         <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>27</v>
       </c>
       <c r="K4">
         <v>10</v>
@@ -1821,7 +1943,7 @@
         <v>9</v>
       </c>
       <c r="N4" t="s">
-        <v>28</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1829,28 +1951,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
         <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>27</v>
       </c>
       <c r="K5">
         <v>7</v>
@@ -1862,7 +1984,7 @@
         <v>7</v>
       </c>
       <c r="N5" t="s">
-        <v>31</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -1870,28 +1992,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
         <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>27</v>
       </c>
       <c r="K6">
         <v>10</v>
@@ -1903,7 +2025,7 @@
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>34</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -1911,19 +2033,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1932,7 +2054,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K7">
         <v>10</v>
@@ -1944,7 +2066,7 @@
         <v>10</v>
       </c>
       <c r="N7" t="s">
-        <v>38</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1952,34 +2074,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G8">
         <v>0</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
-      <c r="L8">
-        <v>5</v>
-      </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-      <c r="N8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -1987,19 +2097,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -2017,7 +2127,7 @@
         <v>7</v>
       </c>
       <c r="N9" t="s">
-        <v>45</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -2025,19 +2135,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C10">
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -2046,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K10">
         <v>10</v>
@@ -2058,7 +2168,7 @@
         <v>10</v>
       </c>
       <c r="N10" t="s">
-        <v>47</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -2066,25 +2176,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
         <v>40</v>
       </c>
-      <c r="F11" t="s">
-        <v>49</v>
-      </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K11">
         <v>6</v>
@@ -2096,7 +2206,7 @@
         <v>6</v>
       </c>
       <c r="N11" t="s">
-        <v>50</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -2104,25 +2214,25 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K12">
         <v>7</v>
@@ -2134,7 +2244,7 @@
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>53</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -2142,19 +2252,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -2172,7 +2282,7 @@
         <v>7</v>
       </c>
       <c r="N13" t="s">
-        <v>58</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -2180,25 +2290,25 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>227</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K14">
         <v>7</v>
@@ -2210,7 +2320,7 @@
         <v>6</v>
       </c>
       <c r="N14" t="s">
-        <v>61</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -2218,19 +2328,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C15">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2242,7 +2352,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K15">
         <v>8</v>
@@ -2254,7 +2364,7 @@
         <v>9</v>
       </c>
       <c r="N15" t="s">
-        <v>64</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -2262,19 +2372,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -2292,7 +2402,7 @@
         <v>9</v>
       </c>
       <c r="N16" t="s">
-        <v>68</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -2300,25 +2410,25 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C17">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K17">
         <v>9</v>
@@ -2330,7 +2440,7 @@
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>71</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -2338,19 +2448,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2368,7 +2478,7 @@
         <v>8</v>
       </c>
       <c r="N18" t="s">
-        <v>74</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -2376,25 +2486,25 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="F19" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K19">
         <v>5</v>
@@ -2406,7 +2516,7 @@
         <v>8</v>
       </c>
       <c r="N19" t="s">
-        <v>78</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -2414,19 +2524,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="F20" t="s">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2444,7 +2554,7 @@
         <v>7</v>
       </c>
       <c r="N20" t="s">
-        <v>82</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -2452,19 +2562,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="F21" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2482,7 +2592,7 @@
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>86</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -2490,25 +2600,25 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>88</v>
+        <v>238</v>
       </c>
       <c r="F22" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K22">
         <v>10</v>
@@ -2520,7 +2630,7 @@
         <v>10</v>
       </c>
       <c r="N22" t="s">
-        <v>90</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -2528,25 +2638,25 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="F23" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K23">
         <v>10</v>
@@ -2558,7 +2668,7 @@
         <v>7</v>
       </c>
       <c r="N23" t="s">
-        <v>94</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -2566,25 +2676,25 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="F24" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -2596,7 +2706,7 @@
         <v>7</v>
       </c>
       <c r="N24" t="s">
-        <v>98</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -2604,25 +2714,25 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
+        <v>242</v>
       </c>
       <c r="F25" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K25">
         <v>10</v>
@@ -2634,7 +2744,7 @@
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>102</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -2642,19 +2752,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="F26" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2672,7 +2782,7 @@
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>106</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -2680,19 +2790,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2710,7 +2820,7 @@
         <v>7</v>
       </c>
       <c r="N27" t="s">
-        <v>110</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -2718,22 +2828,25 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E28" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="G28">
         <v>0</v>
+      </c>
+      <c r="N28" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -2741,25 +2854,28 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="E29" t="s">
-        <v>115</v>
+        <v>248</v>
       </c>
       <c r="F29" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="N29" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -2767,22 +2883,25 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="E30" t="s">
-        <v>118</v>
+        <v>249</v>
       </c>
       <c r="F30" t="s">
-        <v>119</v>
+        <v>250</v>
       </c>
       <c r="G30">
         <v>0</v>
+      </c>
+      <c r="N30" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -2790,25 +2909,28 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="E31" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="F31" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="J31" t="s">
         <v>18</v>
+      </c>
+      <c r="N31" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -2816,45 +2938,48 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="C32">
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="E32" t="s">
-        <v>115</v>
+        <v>248</v>
       </c>
       <c r="F32" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="N32" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="E33" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="F33" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2862,25 +2987,28 @@
       <c r="J33" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N33" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="C34">
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="E34" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="F34" t="s">
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2888,48 +3016,54 @@
       <c r="J34" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N34" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="C35">
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="E35" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="F35" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N35" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="E36" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="F36" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2937,51 +3071,57 @@
       <c r="J36" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N36" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="E37" t="s">
-        <v>115</v>
+        <v>248</v>
       </c>
       <c r="F37" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="N37" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="E38" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="F38" t="s">
-        <v>138</v>
+        <v>265</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -2990,241 +3130,334 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="K38">
+        <v>3</v>
+      </c>
+      <c r="L38">
+        <v>4</v>
+      </c>
+      <c r="M38">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>139</v>
+        <v>259</v>
       </c>
       <c r="C39">
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="E39" t="s">
-        <v>137</v>
+        <v>260</v>
       </c>
       <c r="F39" t="s">
-        <v>140</v>
+        <v>261</v>
       </c>
       <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="J39" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N39" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="C40">
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="E40" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="F40" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
       <c r="J40" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="K40">
+        <v>5</v>
+      </c>
+      <c r="L40">
+        <v>4</v>
+      </c>
+      <c r="M40">
+        <v>8</v>
+      </c>
+      <c r="N40" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" t="s">
+        <v>102</v>
+      </c>
+      <c r="F41" t="s">
+        <v>264</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>25</v>
+      </c>
+      <c r="K41">
+        <v>10</v>
+      </c>
+      <c r="L41">
+        <v>6</v>
+      </c>
+      <c r="M41">
+        <v>9</v>
+      </c>
+      <c r="N41" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>143</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41" t="s">
-        <v>144</v>
-      </c>
-      <c r="E41" t="s">
-        <v>145</v>
-      </c>
-      <c r="F41" t="s">
-        <v>146</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="J41" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="B42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" t="s">
+        <v>108</v>
+      </c>
+      <c r="F42" t="s">
+        <v>267</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="J42" t="s">
+        <v>25</v>
+      </c>
+      <c r="K42">
+        <v>8</v>
+      </c>
+      <c r="L42">
+        <v>7</v>
+      </c>
+      <c r="M42">
+        <v>7</v>
+      </c>
+      <c r="N42" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
-        <v>147</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42" t="s">
-        <v>144</v>
-      </c>
-      <c r="E42" t="s">
-        <v>145</v>
-      </c>
-      <c r="F42" t="s">
-        <v>148</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="J42" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="B43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" t="s">
+        <v>110</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K43">
+        <v>8</v>
+      </c>
+      <c r="L43">
+        <v>7</v>
+      </c>
+      <c r="M43">
+        <v>8</v>
+      </c>
+      <c r="N43" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
-        <v>149</v>
-      </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="D43" t="s">
-        <v>144</v>
-      </c>
-      <c r="E43" t="s">
-        <v>150</v>
-      </c>
-      <c r="F43" t="s">
-        <v>151</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="J43" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>43</v>
-      </c>
       <c r="B44" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="E44" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="F44" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="G44">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="K44">
+        <v>4</v>
+      </c>
+      <c r="L44">
+        <v>5</v>
+      </c>
+      <c r="M44">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>107</v>
+      </c>
+      <c r="E45" t="s">
+        <v>112</v>
+      </c>
+      <c r="F45" t="s">
+        <v>115</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="J45" t="s">
+        <v>25</v>
+      </c>
+      <c r="K45">
+        <v>7</v>
+      </c>
+      <c r="L45">
+        <v>8</v>
+      </c>
+      <c r="M45">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
-        <v>154</v>
-      </c>
-      <c r="C45">
+      <c r="B46" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46">
         <v>3</v>
       </c>
-      <c r="D45" t="s">
-        <v>144</v>
-      </c>
-      <c r="E45" t="s">
-        <v>155</v>
-      </c>
-      <c r="F45" t="s">
-        <v>156</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="J45" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="D46" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" t="s">
+        <v>117</v>
+      </c>
+      <c r="F46" t="s">
+        <v>118</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="J46" t="s">
+        <v>25</v>
+      </c>
+      <c r="K46">
+        <v>10</v>
+      </c>
+      <c r="L46">
+        <v>5</v>
+      </c>
+      <c r="M46">
+        <v>10</v>
+      </c>
+      <c r="N46" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
-        <v>157</v>
-      </c>
-      <c r="C46">
-        <v>2</v>
-      </c>
-      <c r="D46" t="s">
-        <v>144</v>
-      </c>
-      <c r="E46" t="s">
-        <v>158</v>
-      </c>
-      <c r="F46" t="s">
-        <v>159</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>46</v>
-      </c>
       <c r="B47" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="C47">
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="E47" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="F47" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -3233,105 +3466,156 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
+        <v>25</v>
+      </c>
+      <c r="K47">
+        <v>9</v>
+      </c>
+      <c r="L47">
+        <v>9</v>
+      </c>
+      <c r="M47">
+        <v>8</v>
+      </c>
+      <c r="N47" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" t="s">
+        <v>123</v>
+      </c>
+      <c r="F48" t="s">
+        <v>124</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>163</v>
-      </c>
-      <c r="C48">
-        <v>3</v>
-      </c>
-      <c r="D48" t="s">
-        <v>144</v>
-      </c>
-      <c r="E48" t="s">
-        <v>164</v>
-      </c>
-      <c r="F48" t="s">
-        <v>165</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="J48" t="s">
-        <v>27</v>
+      <c r="K48">
+        <v>9</v>
+      </c>
+      <c r="L48">
+        <v>9</v>
+      </c>
+      <c r="M48">
+        <v>9</v>
+      </c>
+      <c r="N48" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="E49" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="F49" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="K49">
+        <v>9</v>
+      </c>
+      <c r="L49">
+        <v>8</v>
+      </c>
+      <c r="M49">
+        <v>8</v>
+      </c>
+      <c r="N49" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" t="s">
+        <v>129</v>
+      </c>
+      <c r="F50" t="s">
+        <v>130</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="J50" t="s">
+        <v>25</v>
+      </c>
+      <c r="K50">
+        <v>9</v>
+      </c>
+      <c r="L50">
         <v>7</v>
       </c>
-      <c r="D50" t="s">
-        <v>170</v>
-      </c>
-      <c r="E50" t="s">
-        <v>171</v>
-      </c>
-      <c r="F50" t="s">
-        <v>172</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="J50" t="s">
-        <v>18</v>
+      <c r="M50">
+        <v>8</v>
+      </c>
+      <c r="N50" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="E51" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="F51" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -3339,190 +3623,253 @@
       <c r="J51" t="s">
         <v>18</v>
       </c>
+      <c r="K51">
+        <v>10</v>
+      </c>
+      <c r="L51">
+        <v>10</v>
+      </c>
+      <c r="M51">
+        <v>10</v>
+      </c>
+      <c r="N51" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="E52" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="F52" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
         <v>18</v>
       </c>
+      <c r="N52" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="E53" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="F53" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
       <c r="J53" t="s">
-        <v>27</v>
+        <v>18</v>
+      </c>
+      <c r="N53" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="E54" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="F54" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
       <c r="J54" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="K54">
+        <v>10</v>
+      </c>
+      <c r="L54">
+        <v>6</v>
+      </c>
+      <c r="M54">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="E55" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="F55" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
       <c r="J55" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="K55">
+        <v>9</v>
+      </c>
+      <c r="L55">
+        <v>7</v>
+      </c>
+      <c r="M55">
+        <v>10</v>
+      </c>
+      <c r="N55" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56" t="s">
+        <v>144</v>
+      </c>
+      <c r="E56" t="s">
+        <v>148</v>
+      </c>
+      <c r="F56" t="s">
+        <v>149</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="J56" t="s">
+        <v>25</v>
+      </c>
+      <c r="K56">
         <v>8</v>
       </c>
-      <c r="D56" t="s">
-        <v>182</v>
-      </c>
-      <c r="E56" t="s">
-        <v>189</v>
-      </c>
-      <c r="F56" t="s">
-        <v>190</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="J56" t="s">
-        <v>18</v>
+      <c r="L56">
+        <v>9</v>
+      </c>
+      <c r="M56">
+        <v>8</v>
+      </c>
+      <c r="N56" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="C57">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="E57" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="F57" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>27</v>
+        <v>18</v>
+      </c>
+      <c r="K57">
+        <v>8</v>
+      </c>
+      <c r="L57">
+        <v>10</v>
+      </c>
+      <c r="M57">
+        <v>10</v>
+      </c>
+      <c r="N57" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="C58">
         <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="E58" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="F58" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -3530,276 +3877,315 @@
       <c r="H58">
         <v>1</v>
       </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
       <c r="J58" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="K58">
+        <v>9</v>
+      </c>
+      <c r="L58">
+        <v>8</v>
+      </c>
+      <c r="M58">
+        <v>7</v>
+      </c>
+      <c r="N58" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="E59" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="F59" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="G59">
         <v>1</v>
       </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
       <c r="J59" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K59">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="L59">
+        <v>4</v>
       </c>
       <c r="M59">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>200</v>
+        <v>285</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>201</v>
+        <v>160</v>
       </c>
       <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>154</v>
+      </c>
+      <c r="E60" t="s">
+        <v>158</v>
+      </c>
+      <c r="F60" t="s">
+        <v>161</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="J60" t="s">
+        <v>25</v>
+      </c>
+      <c r="K60">
+        <v>8</v>
+      </c>
+      <c r="L60">
         <v>10</v>
-      </c>
-      <c r="D60" t="s">
-        <v>202</v>
-      </c>
-      <c r="E60" t="s">
-        <v>203</v>
-      </c>
-      <c r="F60" t="s">
-        <v>204</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="J60" t="s">
-        <v>27</v>
-      </c>
-      <c r="K60">
-        <v>3</v>
-      </c>
-      <c r="L60">
-        <v>2</v>
       </c>
       <c r="M60">
         <v>6</v>
       </c>
       <c r="N60" t="s">
-        <v>205</v>
+        <v>286</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="C61">
+        <v>10</v>
+      </c>
+      <c r="D61" t="s">
+        <v>163</v>
+      </c>
+      <c r="E61" t="s">
+        <v>164</v>
+      </c>
+      <c r="F61" t="s">
+        <v>165</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="J61" t="s">
+        <v>25</v>
+      </c>
+      <c r="K61">
+        <v>3</v>
+      </c>
+      <c r="L61">
         <v>2</v>
       </c>
-      <c r="D61" t="s">
-        <v>202</v>
-      </c>
-      <c r="E61" t="s">
-        <v>203</v>
-      </c>
-      <c r="F61" t="s">
-        <v>207</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="J61" t="s">
-        <v>18</v>
-      </c>
-      <c r="K61">
-        <v>2</v>
-      </c>
-      <c r="L61">
-        <v>3</v>
-      </c>
       <c r="M61">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N61" t="s">
-        <v>208</v>
+        <v>287</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>209</v>
+        <v>166</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="E62" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="F62" t="s">
-        <v>211</v>
+        <v>167</v>
       </c>
       <c r="G62">
         <v>1</v>
       </c>
-      <c r="H62">
-        <v>1</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
       <c r="J62" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="K62">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L62">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M62">
         <v>7</v>
       </c>
       <c r="N62" t="s">
-        <v>212</v>
+        <v>293</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="C63">
         <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="E63" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="F63" t="s">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="G63">
         <v>1</v>
       </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
       <c r="J63" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K63">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L63">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M63">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N63" t="s">
-        <v>215</v>
+        <v>289</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>216</v>
+        <v>171</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="E64" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="F64" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J64" t="s">
+        <v>25</v>
+      </c>
+      <c r="K64">
+        <v>9</v>
+      </c>
+      <c r="L64">
+        <v>2</v>
+      </c>
+      <c r="M64">
+        <v>6</v>
+      </c>
+      <c r="N64" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>219</v>
+        <v>173</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D65" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="E65" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="F65" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
+      <c r="K65">
+        <v>8</v>
+      </c>
       <c r="L65">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M65">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>222</v>
+        <v>291</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="E66" t="s">
-        <v>224</v>
+        <v>177</v>
       </c>
       <c r="F66" t="s">
-        <v>221</v>
+        <v>178</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -3811,357 +4197,449 @@
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>225</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>226</v>
+        <v>180</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="E67" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="F67" t="s">
-        <v>228</v>
+        <v>178</v>
       </c>
       <c r="G67">
-        <v>1</v>
-      </c>
-      <c r="J67" t="s">
-        <v>18</v>
-      </c>
-      <c r="K67">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L67">
+        <v>6</v>
+      </c>
+      <c r="M67">
         <v>5</v>
       </c>
-      <c r="M67">
-        <v>8</v>
+      <c r="N67" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="E68" t="s">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="F68" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J68" t="s">
+        <v>18</v>
+      </c>
+      <c r="K68">
+        <v>8</v>
       </c>
       <c r="L68">
+        <v>5</v>
+      </c>
+      <c r="M68">
         <v>8</v>
       </c>
-      <c r="M68">
-        <v>5</v>
-      </c>
       <c r="N68" t="s">
-        <v>231</v>
+        <v>288</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="E69" t="s">
-        <v>233</v>
+        <v>187</v>
       </c>
       <c r="F69" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
       <c r="G69">
-        <v>1</v>
-      </c>
-      <c r="J69" t="s">
-        <v>27</v>
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>8</v>
+      </c>
+      <c r="M69">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>235</v>
+        <v>189</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D70" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="E70" t="s">
-        <v>236</v>
+        <v>190</v>
       </c>
       <c r="F70" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J70" t="s">
+        <v>25</v>
+      </c>
+      <c r="K70">
+        <v>6</v>
       </c>
       <c r="L70">
         <v>6</v>
       </c>
       <c r="M70">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>238</v>
+        <v>192</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="E71" t="s">
-        <v>239</v>
+        <v>193</v>
       </c>
       <c r="F71" t="s">
-        <v>221</v>
+        <v>178</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
+      <c r="L71">
+        <v>6</v>
+      </c>
+      <c r="M71">
+        <v>6</v>
+      </c>
       <c r="N71" t="s">
-        <v>240</v>
+        <v>295</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>241</v>
+        <v>194</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="E72" t="s">
-        <v>242</v>
+        <v>195</v>
+      </c>
+      <c r="F72" t="s">
+        <v>178</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
-      <c r="J72" t="s">
-        <v>18</v>
+      <c r="N72" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>244</v>
+        <v>163</v>
       </c>
       <c r="E73" t="s">
-        <v>244</v>
+        <v>197</v>
+      </c>
+      <c r="F73" t="s">
+        <v>294</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
+      <c r="J73" t="s">
+        <v>18</v>
+      </c>
+      <c r="N73" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E74" t="s">
-        <v>245</v>
-      </c>
-      <c r="F74" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
+      <c r="N74" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="E75" t="s">
-        <v>247</v>
+        <v>200</v>
       </c>
       <c r="F75" t="s">
-        <v>248</v>
+        <v>178</v>
       </c>
       <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="J75" t="s">
-        <v>27</v>
+        <v>0</v>
+      </c>
+      <c r="N75" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="C76">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>250</v>
+        <v>163</v>
       </c>
       <c r="E76" t="s">
-        <v>251</v>
+        <v>202</v>
       </c>
       <c r="F76" t="s">
-        <v>252</v>
+        <v>203</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="K76">
+        <v>7</v>
+      </c>
+      <c r="L76">
+        <v>6</v>
+      </c>
+      <c r="M76">
+        <v>10</v>
       </c>
       <c r="N76" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>254</v>
+        <v>204</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="E77" t="s">
-        <v>255</v>
+        <v>206</v>
       </c>
       <c r="F77" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
+      <c r="J77" t="s">
+        <v>25</v>
+      </c>
+      <c r="K77">
+        <v>5</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>2</v>
+      </c>
       <c r="N77" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C78" s="2">
-        <v>1</v>
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>209</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="E78" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="F78" t="s">
-        <v>221</v>
+        <v>178</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="N78" t="s">
-        <v>257</v>
+        <v>301</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C79" s="2">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>205</v>
+      </c>
+      <c r="E79" t="s">
+        <v>206</v>
+      </c>
+      <c r="F79" t="s">
+        <v>178</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="N79" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80">
         <v>78</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C79" s="3">
+      <c r="B80" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C80">
         <v>2</v>
       </c>
-      <c r="D79" t="s">
-        <v>250</v>
-      </c>
-      <c r="E79" t="s">
-        <v>260</v>
-      </c>
-      <c r="F79" t="s">
-        <v>261</v>
-      </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="J79" t="s">
-        <v>27</v>
+      <c r="D80" t="s">
+        <v>205</v>
+      </c>
+      <c r="E80" t="s">
+        <v>214</v>
+      </c>
+      <c r="F80" t="s">
+        <v>215</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="J80" t="s">
+        <v>25</v>
+      </c>
+      <c r="K80">
+        <v>9</v>
+      </c>
+      <c r="L80">
+        <v>8</v>
+      </c>
+      <c r="M80">
+        <v>8</v>
+      </c>
+      <c r="N80" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
